--- a/biology/Botanique/Edraianthus/Edraianthus.xlsx
+++ b/biology/Botanique/Edraianthus/Edraianthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edraianthus est un petit genre de plantes à fleurs de la famille des Campanulaceae. Les espèces du genre Edraianthus sont natives des montagnes des Balkans, notamment de Croatie, Bosnie-Herzégovine, Bulgarie et Serbie. On les rencontre aussi en Roumanie, en Italie et en Grèce.
 Ces plantes pérennes poussent dans les montagnes. Leurs feuilles forment des touffes herbeuses et leurs fleurs se présentent sous l'aspect de clochettes, généralement de couleur bleue. Elles sont souvent utilisées comme plantes ornementales dans les rocailles.
@@ -513,7 +525,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Edraianthus dalmaticus
 Edraianthus dinaricus
@@ -553,7 +567,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Botany 2006
 Ottawa Valley Rock Garden &amp; Horticultural Society
